--- a/files/03.IBGE/UPG_UBERABA.xlsx
+++ b/files/03.IBGE/UPG_UBERABA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\eleicoes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\mapeamento_uberaba\files\03.IBGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB344694-BA87-4426-B207-A67B612429F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7AD215-9334-4638-A92F-711A037EFE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>UPG</t>
   </si>
@@ -182,13 +182,13 @@
     <t>PARQUE DO CAFÉ</t>
   </si>
   <si>
-    <t>RURAL</t>
-  </si>
-  <si>
     <t>SANTA FÉ</t>
   </si>
   <si>
     <t>SÃO BASÍLIO</t>
+  </si>
+  <si>
+    <t>RURAL GERAL</t>
   </si>
 </sst>
 </file>
@@ -529,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,286 +560,287 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
-        <v>14981</v>
+        <v>25314</v>
       </c>
       <c r="C2" s="1">
-        <v>6997</v>
+        <v>12583</v>
       </c>
       <c r="D2" s="1">
         <f>(B2-C2)</f>
-        <v>7984</v>
+        <v>12731</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>9208</v>
+        <v>22671</v>
       </c>
       <c r="C3" s="1">
-        <v>4462</v>
+        <v>10859</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D47" si="0">(B3-C3)</f>
-        <v>4746</v>
+        <f>(B3-C3)</f>
+        <v>11812</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>6742</v>
+        <v>17447</v>
       </c>
       <c r="C4" s="1">
-        <v>3355</v>
+        <v>8521</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>3387</v>
+        <f>(B4-C4)</f>
+        <v>8926</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
-        <v>10887</v>
+        <v>17124</v>
       </c>
       <c r="C5" s="1">
-        <v>5352</v>
+        <v>7830</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>5535</v>
+        <f>(B5-C5)</f>
+        <v>9294</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B6" s="1">
-        <v>113</v>
+        <v>16966</v>
       </c>
       <c r="C6" s="1">
-        <v>55</v>
+        <v>8047</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <f>(B6-C6)</f>
+        <v>8919</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>3654</v>
+        <v>14981</v>
       </c>
       <c r="C7" s="1">
-        <v>1687</v>
+        <v>6997</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>1967</v>
+        <f>(B7-C7)</f>
+        <v>7984</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>22671</v>
+        <v>13898</v>
       </c>
       <c r="C8" s="1">
-        <v>10859</v>
+        <v>6754</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>11812</v>
+        <f>(B8-C8)</f>
+        <v>7144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1">
-        <v>154</v>
+        <v>13392</v>
       </c>
       <c r="C9" s="1">
-        <v>79</v>
+        <v>6493</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <f>(B9-C9)</f>
+        <v>6899</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
-        <v>3387</v>
+        <v>12633</v>
       </c>
       <c r="C10" s="1">
-        <v>1558</v>
+        <v>5957</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>1829</v>
+        <f>(B10-C10)</f>
+        <v>6676</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
-        <v>237</v>
+        <v>12619</v>
       </c>
       <c r="C11" s="1">
-        <v>129</v>
+        <v>6213</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <f>(B11-C11)</f>
+        <v>6406</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
-        <v>5074</v>
+        <v>11026</v>
       </c>
       <c r="C12" s="1">
-        <v>2173</v>
+        <v>5306</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>2901</v>
+        <f>(B12-C12)</f>
+        <v>5720</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
-        <v>40</v>
+        <v>11005</v>
       </c>
       <c r="C13" s="1">
-        <v>24</v>
+        <v>5102</v>
       </c>
       <c r="D13" s="1">
-        <v>16</v>
+        <f>(B13-C13)</f>
+        <v>5903</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>13898</v>
+        <v>10887</v>
       </c>
       <c r="C14" s="1">
-        <v>6754</v>
+        <v>5352</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>7144</v>
+        <f>(B14-C14)</f>
+        <v>5535</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
-        <v>24</v>
+        <v>10524</v>
       </c>
       <c r="C15" s="1">
-        <v>9</v>
+        <v>4746</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>(B15-C15)</f>
+        <v>5778</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
-        <v>6</v>
+        <v>10251</v>
       </c>
       <c r="C16" s="1">
-        <v>4</v>
+        <v>5024</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>(B16-C16)</f>
+        <v>5227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
-        <v>55</v>
+        <v>9315</v>
       </c>
       <c r="C17" s="1">
-        <v>26</v>
+        <v>4553</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>(B17-C17)</f>
+        <v>4762</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>17124</v>
+        <v>9208</v>
       </c>
       <c r="C18" s="1">
-        <v>7830</v>
+        <v>4462</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>9294</v>
+        <f>(B18-C18)</f>
+        <v>4746</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>16966</v>
+        <v>8761</v>
       </c>
       <c r="C19" s="1">
-        <v>8047</v>
+        <v>4158</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>8919</v>
+        <f>(B19-C19)</f>
+        <v>4603</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>11026</v>
+        <v>8370</v>
       </c>
       <c r="C20" s="1">
-        <v>5306</v>
+        <v>3954</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>5720</v>
+        <f>(B20-C20)</f>
+        <v>4416</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -853,176 +854,176 @@
         <v>3847</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f>(B21-C21)</f>
         <v>4062</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1">
-        <v>220</v>
+        <v>6922</v>
       </c>
       <c r="C22" s="1">
-        <v>119</v>
+        <v>3885</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <f>(B22-C22)</f>
+        <v>3037</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>8370</v>
+        <v>6742</v>
       </c>
       <c r="C23" s="1">
-        <v>3954</v>
+        <v>3355</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>4416</v>
+        <f>(B23-C23)</f>
+        <v>3387</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
-        <v>10251</v>
+        <v>6425</v>
       </c>
       <c r="C24" s="1">
-        <v>5024</v>
+        <v>2919</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>5227</v>
+        <f>(B24-C24)</f>
+        <v>3506</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>9315</v>
+        <v>6311</v>
       </c>
       <c r="C25" s="1">
-        <v>4553</v>
+        <v>3093</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>4762</v>
+        <f>(B25-C25)</f>
+        <v>3218</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
-        <v>8761</v>
+        <v>6037</v>
       </c>
       <c r="C26" s="1">
-        <v>4158</v>
+        <v>2877</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>4603</v>
+        <f>(B26-C26)</f>
+        <v>3160</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
-        <v>11005</v>
+        <v>5815</v>
       </c>
       <c r="C27" s="1">
-        <v>5102</v>
+        <v>2824</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>5903</v>
+        <f>(B27-C27)</f>
+        <v>2991</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1">
-        <v>17447</v>
+        <v>5074</v>
       </c>
       <c r="C28" s="1">
-        <v>8521</v>
+        <v>2173</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>8926</v>
+        <f>(B28-C28)</f>
+        <v>2901</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1">
-        <v>25314</v>
+        <v>5051</v>
       </c>
       <c r="C29" s="1">
-        <v>12583</v>
+        <v>2457</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>12731</v>
+        <f>(B29-C29)</f>
+        <v>2594</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
-        <v>13392</v>
+        <v>3950</v>
       </c>
       <c r="C30" s="1">
-        <v>6493</v>
+        <v>2025</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>6899</v>
+        <f>(B30-C30)</f>
+        <v>1925</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
-        <v>69</v>
+        <v>3654</v>
       </c>
       <c r="C31" s="1">
-        <v>36</v>
+        <v>1687</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f>(B31-C31)</f>
+        <v>1967</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1">
-        <v>107</v>
+        <v>3387</v>
       </c>
       <c r="C32" s="1">
-        <v>53</v>
+        <v>1558</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <f>(B32-C32)</f>
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -1033,230 +1034,239 @@
         <v>830</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f>(B33-C33)</f>
         <v>847</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1">
-        <v>6037</v>
+        <v>659</v>
       </c>
       <c r="C34" s="1">
-        <v>2877</v>
+        <v>354</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <f>(B34-C34)</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B35" s="1">
-        <v>6311</v>
+        <v>413</v>
       </c>
       <c r="C35" s="1">
-        <v>3093</v>
+        <v>226</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <f>(B35-C35)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1">
+        <v>237</v>
+      </c>
+      <c r="C36" s="1">
+        <v>129</v>
+      </c>
+      <c r="D36" s="1">
+        <f>(B36-C36)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1">
+        <v>220</v>
+      </c>
+      <c r="C37" s="1">
+        <v>119</v>
+      </c>
+      <c r="D37" s="1">
+        <f>(B37-C37)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
+        <v>154</v>
+      </c>
+      <c r="C38" s="1">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1">
+        <f>(B38-C38)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>146</v>
+      </c>
+      <c r="C39" s="1">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1">
+        <f>(B39-C39)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>113</v>
+      </c>
+      <c r="C40" s="1">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1">
+        <f>(B40-C40)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1">
+        <v>107</v>
+      </c>
+      <c r="C41" s="1">
+        <v>53</v>
+      </c>
+      <c r="D41" s="1">
+        <f>(B41-C41)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B42" s="1">
         <v>78</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C42" s="1">
         <v>43</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
+      <c r="D42" s="1">
+        <f>(B42-C42)</f>
         <v>35</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="1">
-        <v>659</v>
-      </c>
-      <c r="C37" s="1">
-        <v>354</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>305</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="1">
-        <v>413</v>
-      </c>
-      <c r="C38" s="1">
-        <v>226</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="1">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1">
+        <v>36</v>
+      </c>
+      <c r="D43" s="1">
+        <f>(B43-C43)</f>
         <v>33</v>
       </c>
-      <c r="B39" s="1">
-        <v>6425</v>
-      </c>
-      <c r="C39" s="1">
-        <v>2919</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5051</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2457</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="1">
-        <v>12633</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5957</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>6676</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1">
-        <v>10524</v>
-      </c>
-      <c r="C42" s="1">
-        <v>4746</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>5778</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1">
+        <v>55</v>
+      </c>
+      <c r="C44" s="1">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1">
+        <f>(B44-C44)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="1">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="1">
         <v>37</v>
       </c>
-      <c r="B43" s="1">
-        <v>5815</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2824</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3950</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2025</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="1">
-        <v>37</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="C46" s="1">
         <v>21</v>
       </c>
-      <c r="D45" s="1">
-        <f t="shared" si="0"/>
+      <c r="D46" s="1">
+        <f>(B46-C46)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="1">
-        <v>12619</v>
-      </c>
-      <c r="C46" s="1">
-        <v>6213</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>6406</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <f>(B47-C47)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1">
+        <f>(B48-C48)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+    <sortCondition descending="1" ref="B1:B48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/03.IBGE/UPG_UBERABA.xlsx
+++ b/files/03.IBGE/UPG_UBERABA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avsj\iCloudDrive\01.Antonio\01.Projetos\01.github\mapeamento_uberaba\files\03.IBGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7AD215-9334-4638-A92F-711A037EFE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C230D0CA-B681-4C13-A740-8F42982F1936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,10 +251,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +539,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G19" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +576,7 @@
         <v>12583</v>
       </c>
       <c r="D2" s="1">
-        <f>(B2-C2)</f>
+        <f t="shared" ref="D2:D44" si="0">(B2-C2)</f>
         <v>12731</v>
       </c>
     </row>
@@ -584,7 +591,7 @@
         <v>10859</v>
       </c>
       <c r="D3" s="1">
-        <f>(B3-C3)</f>
+        <f t="shared" si="0"/>
         <v>11812</v>
       </c>
     </row>
@@ -599,7 +606,7 @@
         <v>8521</v>
       </c>
       <c r="D4" s="1">
-        <f>(B4-C4)</f>
+        <f t="shared" si="0"/>
         <v>8926</v>
       </c>
     </row>
@@ -614,7 +621,7 @@
         <v>7830</v>
       </c>
       <c r="D5" s="1">
-        <f>(B5-C5)</f>
+        <f t="shared" si="0"/>
         <v>9294</v>
       </c>
     </row>
@@ -629,12 +636,12 @@
         <v>8047</v>
       </c>
       <c r="D6" s="1">
-        <f>(B6-C6)</f>
+        <f t="shared" si="0"/>
         <v>8919</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1">
@@ -644,12 +651,12 @@
         <v>6997</v>
       </c>
       <c r="D7" s="1">
-        <f>(B7-C7)</f>
+        <f t="shared" si="0"/>
         <v>7984</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
@@ -659,7 +666,7 @@
         <v>6754</v>
       </c>
       <c r="D8" s="1">
-        <f>(B8-C8)</f>
+        <f t="shared" si="0"/>
         <v>7144</v>
       </c>
     </row>
@@ -674,7 +681,7 @@
         <v>6493</v>
       </c>
       <c r="D9" s="1">
-        <f>(B9-C9)</f>
+        <f t="shared" si="0"/>
         <v>6899</v>
       </c>
     </row>
@@ -689,7 +696,7 @@
         <v>5957</v>
       </c>
       <c r="D10" s="1">
-        <f>(B10-C10)</f>
+        <f t="shared" si="0"/>
         <v>6676</v>
       </c>
     </row>
@@ -704,7 +711,7 @@
         <v>6213</v>
       </c>
       <c r="D11" s="1">
-        <f>(B11-C11)</f>
+        <f t="shared" si="0"/>
         <v>6406</v>
       </c>
     </row>
@@ -719,7 +726,7 @@
         <v>5306</v>
       </c>
       <c r="D12" s="1">
-        <f>(B12-C12)</f>
+        <f t="shared" si="0"/>
         <v>5720</v>
       </c>
     </row>
@@ -734,7 +741,7 @@
         <v>5102</v>
       </c>
       <c r="D13" s="1">
-        <f>(B13-C13)</f>
+        <f t="shared" si="0"/>
         <v>5903</v>
       </c>
     </row>
@@ -749,7 +756,7 @@
         <v>5352</v>
       </c>
       <c r="D14" s="1">
-        <f>(B14-C14)</f>
+        <f t="shared" si="0"/>
         <v>5535</v>
       </c>
     </row>
@@ -764,7 +771,7 @@
         <v>4746</v>
       </c>
       <c r="D15" s="1">
-        <f>(B15-C15)</f>
+        <f t="shared" si="0"/>
         <v>5778</v>
       </c>
     </row>
@@ -779,7 +786,7 @@
         <v>5024</v>
       </c>
       <c r="D16" s="1">
-        <f>(B16-C16)</f>
+        <f t="shared" si="0"/>
         <v>5227</v>
       </c>
     </row>
@@ -794,7 +801,7 @@
         <v>4553</v>
       </c>
       <c r="D17" s="1">
-        <f>(B17-C17)</f>
+        <f t="shared" si="0"/>
         <v>4762</v>
       </c>
     </row>
@@ -809,7 +816,7 @@
         <v>4462</v>
       </c>
       <c r="D18" s="1">
-        <f>(B18-C18)</f>
+        <f t="shared" si="0"/>
         <v>4746</v>
       </c>
     </row>
@@ -824,7 +831,7 @@
         <v>4158</v>
       </c>
       <c r="D19" s="1">
-        <f>(B19-C19)</f>
+        <f t="shared" si="0"/>
         <v>4603</v>
       </c>
     </row>
@@ -839,7 +846,7 @@
         <v>3954</v>
       </c>
       <c r="D20" s="1">
-        <f>(B20-C20)</f>
+        <f t="shared" si="0"/>
         <v>4416</v>
       </c>
     </row>
@@ -854,7 +861,7 @@
         <v>3847</v>
       </c>
       <c r="D21" s="1">
-        <f>(B21-C21)</f>
+        <f t="shared" si="0"/>
         <v>4062</v>
       </c>
     </row>
@@ -869,7 +876,7 @@
         <v>3885</v>
       </c>
       <c r="D22" s="1">
-        <f>(B22-C22)</f>
+        <f t="shared" si="0"/>
         <v>3037</v>
       </c>
     </row>
@@ -884,7 +891,7 @@
         <v>3355</v>
       </c>
       <c r="D23" s="1">
-        <f>(B23-C23)</f>
+        <f t="shared" si="0"/>
         <v>3387</v>
       </c>
     </row>
@@ -899,7 +906,7 @@
         <v>2919</v>
       </c>
       <c r="D24" s="1">
-        <f>(B24-C24)</f>
+        <f t="shared" si="0"/>
         <v>3506</v>
       </c>
     </row>
@@ -914,7 +921,7 @@
         <v>3093</v>
       </c>
       <c r="D25" s="1">
-        <f>(B25-C25)</f>
+        <f t="shared" si="0"/>
         <v>3218</v>
       </c>
     </row>
@@ -929,7 +936,7 @@
         <v>2877</v>
       </c>
       <c r="D26" s="1">
-        <f>(B26-C26)</f>
+        <f t="shared" si="0"/>
         <v>3160</v>
       </c>
     </row>
@@ -944,7 +951,7 @@
         <v>2824</v>
       </c>
       <c r="D27" s="1">
-        <f>(B27-C27)</f>
+        <f t="shared" si="0"/>
         <v>2991</v>
       </c>
     </row>
@@ -959,7 +966,7 @@
         <v>2173</v>
       </c>
       <c r="D28" s="1">
-        <f>(B28-C28)</f>
+        <f t="shared" si="0"/>
         <v>2901</v>
       </c>
     </row>
@@ -974,7 +981,7 @@
         <v>2457</v>
       </c>
       <c r="D29" s="1">
-        <f>(B29-C29)</f>
+        <f t="shared" si="0"/>
         <v>2594</v>
       </c>
     </row>
@@ -989,7 +996,7 @@
         <v>2025</v>
       </c>
       <c r="D30" s="1">
-        <f>(B30-C30)</f>
+        <f t="shared" si="0"/>
         <v>1925</v>
       </c>
     </row>
@@ -1004,7 +1011,7 @@
         <v>1687</v>
       </c>
       <c r="D31" s="1">
-        <f>(B31-C31)</f>
+        <f t="shared" si="0"/>
         <v>1967</v>
       </c>
     </row>
@@ -1019,7 +1026,7 @@
         <v>1558</v>
       </c>
       <c r="D32" s="1">
-        <f>(B32-C32)</f>
+        <f t="shared" si="0"/>
         <v>1829</v>
       </c>
     </row>
@@ -1034,7 +1041,7 @@
         <v>830</v>
       </c>
       <c r="D33" s="1">
-        <f>(B33-C33)</f>
+        <f t="shared" si="0"/>
         <v>847</v>
       </c>
     </row>
@@ -1049,7 +1056,7 @@
         <v>354</v>
       </c>
       <c r="D34" s="1">
-        <f>(B34-C34)</f>
+        <f t="shared" si="0"/>
         <v>305</v>
       </c>
     </row>
@@ -1064,7 +1071,7 @@
         <v>226</v>
       </c>
       <c r="D35" s="1">
-        <f>(B35-C35)</f>
+        <f t="shared" si="0"/>
         <v>187</v>
       </c>
     </row>
@@ -1079,7 +1086,7 @@
         <v>129</v>
       </c>
       <c r="D36" s="1">
-        <f>(B36-C36)</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
@@ -1094,7 +1101,7 @@
         <v>119</v>
       </c>
       <c r="D37" s="1">
-        <f>(B37-C37)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
     </row>
@@ -1109,7 +1116,7 @@
         <v>79</v>
       </c>
       <c r="D38" s="1">
-        <f>(B38-C38)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -1124,7 +1131,7 @@
         <v>80</v>
       </c>
       <c r="D39" s="1">
-        <f>(B39-C39)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -1139,7 +1146,7 @@
         <v>55</v>
       </c>
       <c r="D40" s="1">
-        <f>(B40-C40)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
@@ -1154,7 +1161,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="1">
-        <f>(B41-C41)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -1169,7 +1176,7 @@
         <v>43</v>
       </c>
       <c r="D42" s="1">
-        <f>(B42-C42)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -1184,7 +1191,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="1">
-        <f>(B43-C43)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -1199,7 +1206,7 @@
         <v>26</v>
       </c>
       <c r="D44" s="1">
-        <f>(B44-C44)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
